--- a/Code/Results/Cases/Case_0_111/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_111/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.076045754004877</v>
+        <v>8.548047572575818</v>
       </c>
       <c r="D2">
-        <v>5.303096021993512</v>
+        <v>6.54125883045493</v>
       </c>
       <c r="E2">
-        <v>9.033427426584431</v>
+        <v>12.18932593745597</v>
       </c>
       <c r="F2">
-        <v>49.00053530281176</v>
+        <v>38.76473174275738</v>
       </c>
       <c r="G2">
-        <v>78.76850699844357</v>
+        <v>56.05567591988871</v>
       </c>
       <c r="H2">
-        <v>19.67237431794508</v>
+        <v>19.44283405269406</v>
       </c>
       <c r="I2">
-        <v>37.72592382390687</v>
+        <v>33.1090684750811</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.533603017618515</v>
+        <v>9.605220242882643</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883691</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.019177834668438</v>
+        <v>8.564959229818934</v>
       </c>
       <c r="D3">
-        <v>5.045743285167805</v>
+        <v>6.524013138894491</v>
       </c>
       <c r="E3">
-        <v>8.678782389446047</v>
+        <v>12.17799175561252</v>
       </c>
       <c r="F3">
-        <v>45.45258799855449</v>
+        <v>37.95564554768515</v>
       </c>
       <c r="G3">
-        <v>73.00372005701249</v>
+        <v>54.44485957427088</v>
       </c>
       <c r="H3">
-        <v>18.46998492372057</v>
+        <v>19.25349562898403</v>
       </c>
       <c r="I3">
-        <v>35.21100426327813</v>
+        <v>32.61190476574679</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.335710805877826</v>
+        <v>9.609539774742887</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502705</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.988167379577571</v>
+        <v>8.57669863710624</v>
       </c>
       <c r="D4">
-        <v>4.890355747278123</v>
+        <v>6.51520600057889</v>
       </c>
       <c r="E4">
-        <v>8.466184588917105</v>
+        <v>12.17398774936703</v>
       </c>
       <c r="F4">
-        <v>43.32196897496819</v>
+        <v>37.46450684535414</v>
       </c>
       <c r="G4">
-        <v>69.40789295563489</v>
+        <v>53.45322415713718</v>
       </c>
       <c r="H4">
-        <v>17.72646395148172</v>
+        <v>19.14253674959212</v>
       </c>
       <c r="I4">
-        <v>33.65404993802413</v>
+        <v>32.31443100047505</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.219332666468727</v>
+        <v>9.614265052071493</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896364</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.976459290678865</v>
+        <v>8.581822926415029</v>
       </c>
       <c r="D5">
-        <v>4.827660472397472</v>
+        <v>6.51206511652173</v>
       </c>
       <c r="E5">
-        <v>8.380813743122713</v>
+        <v>12.17309801068173</v>
       </c>
       <c r="F5">
-        <v>42.44051870542897</v>
+        <v>37.26607771508598</v>
       </c>
       <c r="G5">
-        <v>67.91727270504765</v>
+        <v>53.04915829273452</v>
       </c>
       <c r="H5">
-        <v>17.42134151282318</v>
+        <v>19.09869178991451</v>
       </c>
       <c r="I5">
-        <v>33.01208488578267</v>
+        <v>32.19531226839234</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.173143515020253</v>
+        <v>9.616710417996153</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188116</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.974569803851072</v>
+        <v>8.582694354639402</v>
       </c>
       <c r="D6">
-        <v>4.817287247284919</v>
+        <v>6.511570631173162</v>
       </c>
       <c r="E6">
-        <v>8.366713856925561</v>
+        <v>12.17299503610342</v>
       </c>
       <c r="F6">
-        <v>42.2933524003036</v>
+        <v>37.23324084759345</v>
       </c>
       <c r="G6">
-        <v>67.6681515584367</v>
+        <v>52.98208606689533</v>
       </c>
       <c r="H6">
-        <v>17.37054922020988</v>
+        <v>19.09149532236653</v>
       </c>
       <c r="I6">
-        <v>32.90503479478319</v>
+        <v>32.17566395987912</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.165547127661601</v>
+        <v>9.617147814398114</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566596</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.988005786127164</v>
+        <v>8.576766367500783</v>
       </c>
       <c r="D7">
-        <v>4.889507708704816</v>
+        <v>6.515161827466969</v>
       </c>
       <c r="E7">
-        <v>8.465028153130989</v>
+        <v>12.17397274793382</v>
       </c>
       <c r="F7">
-        <v>43.31013514502367</v>
+        <v>37.46182343124732</v>
       </c>
       <c r="G7">
-        <v>69.38789717351264</v>
+        <v>53.44777372132972</v>
       </c>
       <c r="H7">
-        <v>17.72235752886674</v>
+        <v>19.14193983662412</v>
       </c>
       <c r="I7">
-        <v>33.64542253234047</v>
+        <v>32.31281581399847</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.21870480204695</v>
+        <v>9.614295928700436</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304766463</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.055593024625311</v>
+        <v>8.553597072834577</v>
       </c>
       <c r="D8">
-        <v>5.213786471327503</v>
+        <v>6.53494287687809</v>
       </c>
       <c r="E8">
-        <v>8.910048305138869</v>
+        <v>12.18480398446885</v>
       </c>
       <c r="F8">
-        <v>47.77972764944109</v>
+        <v>38.48476391244221</v>
       </c>
       <c r="G8">
-        <v>76.80240224593668</v>
+        <v>55.50120440250834</v>
       </c>
       <c r="H8">
-        <v>19.25610573274505</v>
+        <v>19.37647600574521</v>
       </c>
       <c r="I8">
-        <v>36.84712649541451</v>
+        <v>32.93611938886439</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.464268936082365</v>
+        <v>9.60627849710111</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656866</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.221881214583704</v>
+        <v>8.51893989266928</v>
       </c>
       <c r="D9">
-        <v>5.882117450647768</v>
+        <v>6.587848814916436</v>
       </c>
       <c r="E9">
-        <v>9.826791985716724</v>
+        <v>12.22952545578663</v>
       </c>
       <c r="F9">
-        <v>56.38104823204075</v>
+        <v>40.52271384069176</v>
       </c>
       <c r="G9">
-        <v>90.65947176046741</v>
+        <v>59.47908260380215</v>
       </c>
       <c r="H9">
-        <v>22.61184027928922</v>
+        <v>19.87651855972801</v>
       </c>
       <c r="I9">
-        <v>43.44056313210553</v>
+        <v>34.21358298927608</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.989821754669699</v>
+        <v>9.607065939956465</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380647</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.369224213631864</v>
+        <v>8.500077603047993</v>
       </c>
       <c r="D10">
-        <v>6.560024924471665</v>
+        <v>6.635265484924069</v>
       </c>
       <c r="E10">
-        <v>10.53511247529522</v>
+        <v>12.27671356192986</v>
       </c>
       <c r="F10">
-        <v>62.48479980918973</v>
+        <v>42.02276729776702</v>
       </c>
       <c r="G10">
-        <v>100.5002773681476</v>
+        <v>62.33661497587624</v>
       </c>
       <c r="H10">
-        <v>25.0491053968002</v>
+        <v>20.26563986766339</v>
       </c>
       <c r="I10">
-        <v>48.16530686325792</v>
+        <v>35.17675798586905</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.409387508166958</v>
+        <v>9.617782190532838</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.443061882121485</v>
+        <v>8.492935977384757</v>
       </c>
       <c r="D11">
-        <v>6.868076672384324</v>
+        <v>6.658670252532967</v>
       </c>
       <c r="E11">
-        <v>10.86802865275399</v>
+        <v>12.30128531533712</v>
       </c>
       <c r="F11">
-        <v>65.24242771991737</v>
+        <v>42.70243386384655</v>
       </c>
       <c r="G11">
-        <v>104.9486195348554</v>
+        <v>63.6158804261721</v>
       </c>
       <c r="H11">
-        <v>26.15185050415701</v>
+        <v>20.44676437197159</v>
       </c>
       <c r="I11">
-        <v>50.2999015108833</v>
+        <v>35.6183635271024</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.609816994741411</v>
+        <v>9.624870026512118</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.472149904895227</v>
+        <v>8.490439001446719</v>
       </c>
       <c r="D12">
-        <v>6.985141665883774</v>
+        <v>6.667794205637503</v>
       </c>
       <c r="E12">
-        <v>10.99603222640294</v>
+        <v>12.31103500637909</v>
       </c>
       <c r="F12">
-        <v>66.28714011555815</v>
+        <v>42.95915356060193</v>
       </c>
       <c r="G12">
-        <v>106.6342652822156</v>
+        <v>64.09684983928501</v>
       </c>
       <c r="H12">
-        <v>26.56986488883899</v>
+        <v>20.51588900938445</v>
       </c>
       <c r="I12">
-        <v>51.10861148554873</v>
+        <v>35.78592729203418</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.687370115884286</v>
+        <v>9.627872742732462</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585682186</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.465832347331355</v>
+        <v>8.490967538079476</v>
       </c>
       <c r="D13">
-        <v>6.95990251976339</v>
+        <v>6.665817636079578</v>
       </c>
       <c r="E13">
-        <v>10.96837038699069</v>
+        <v>12.30891548132112</v>
       </c>
       <c r="F13">
-        <v>66.062061152224</v>
+        <v>42.90389758222634</v>
       </c>
       <c r="G13">
-        <v>106.2710799552656</v>
+        <v>63.99342574258328</v>
       </c>
       <c r="H13">
-        <v>26.47979421643878</v>
+        <v>20.50097878508261</v>
       </c>
       <c r="I13">
-        <v>50.93437636380978</v>
+        <v>35.74982692619119</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.67058857975914</v>
+        <v>9.627211874153534</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617575</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.445431386993477</v>
+        <v>8.492726390302192</v>
       </c>
       <c r="D14">
-        <v>6.877696306695075</v>
+        <v>6.659415670601665</v>
       </c>
       <c r="E14">
-        <v>10.87851800135369</v>
+        <v>12.30207852333074</v>
       </c>
       <c r="F14">
-        <v>65.3283459989844</v>
+        <v>42.72356894458952</v>
       </c>
       <c r="G14">
-        <v>105.087240029296</v>
+        <v>63.65552208521829</v>
       </c>
       <c r="H14">
-        <v>26.18622344168367</v>
+        <v>20.45244085516624</v>
       </c>
       <c r="I14">
-        <v>50.36640988963605</v>
+        <v>35.63214323595626</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.616162230781283</v>
+        <v>9.625110672440348</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489659</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.433087088023094</v>
+        <v>8.493830762105409</v>
       </c>
       <c r="D15">
-        <v>6.827412222828366</v>
+        <v>6.655528192578607</v>
       </c>
       <c r="E15">
-        <v>10.82374710893376</v>
+        <v>12.29794856939128</v>
       </c>
       <c r="F15">
-        <v>64.87909462508867</v>
+        <v>42.61301950385379</v>
       </c>
       <c r="G15">
-        <v>104.3624354489265</v>
+        <v>63.44808181910363</v>
       </c>
       <c r="H15">
-        <v>26.00650348186695</v>
+        <v>20.42277824019309</v>
       </c>
       <c r="I15">
-        <v>50.01865085242787</v>
+        <v>35.56009785080179</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.58304992587108</v>
+        <v>9.623865141324737</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549472</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.364547578207525</v>
+        <v>8.500573322065993</v>
       </c>
       <c r="D16">
-        <v>6.539922857929979</v>
+        <v>6.633772621830958</v>
       </c>
       <c r="E16">
-        <v>10.51360170564647</v>
+        <v>12.27517010146205</v>
       </c>
       <c r="F16">
-        <v>62.30445244828554</v>
+        <v>41.97827187745378</v>
       </c>
       <c r="G16">
-        <v>100.2094116717889</v>
+        <v>62.25255348183828</v>
       </c>
       <c r="H16">
-        <v>24.97701990040835</v>
+        <v>20.25388104402256</v>
       </c>
       <c r="I16">
-        <v>48.02570796857712</v>
+        <v>35.14795381053022</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.396503284999999</v>
+        <v>9.617363560804215</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.42464283346099</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.32433893337018</v>
+        <v>8.50507856087312</v>
       </c>
       <c r="D17">
-        <v>6.363762285986052</v>
+        <v>6.620894374435061</v>
       </c>
       <c r="E17">
-        <v>10.32631823856351</v>
+        <v>12.2619906475488</v>
       </c>
       <c r="F17">
-        <v>60.72212529123144</v>
+        <v>41.58798627937279</v>
       </c>
       <c r="G17">
-        <v>97.65769176186976</v>
+        <v>61.51348407508949</v>
       </c>
       <c r="H17">
-        <v>24.34473896626302</v>
+        <v>20.15128256180353</v>
       </c>
       <c r="I17">
-        <v>46.80090140849937</v>
+        <v>34.89588669837362</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.284684464125248</v>
+        <v>9.613942260222533</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.301842304943326</v>
+        <v>8.507805265770457</v>
       </c>
       <c r="D18">
-        <v>6.262374460805634</v>
+        <v>6.613660029825692</v>
       </c>
       <c r="E18">
-        <v>10.21957393124493</v>
+        <v>12.25470262740408</v>
       </c>
       <c r="F18">
-        <v>59.80998818820053</v>
+        <v>41.36326370541828</v>
       </c>
       <c r="G18">
-        <v>96.18696071723514</v>
+        <v>61.08647466578538</v>
       </c>
       <c r="H18">
-        <v>23.98040925114076</v>
+        <v>20.09266092196951</v>
       </c>
       <c r="I18">
-        <v>46.09485523450626</v>
+        <v>34.75123864885476</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.221248511622115</v>
+        <v>9.612182698080019</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.5640428768043</v>
+        <v>20.79000725568362</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.29432968341415</v>
+        <v>8.508751722894061</v>
       </c>
       <c r="D19">
-        <v>6.228023074772346</v>
+        <v>6.6112403743689</v>
       </c>
       <c r="E19">
-        <v>10.18358988247293</v>
+        <v>12.2522853008525</v>
       </c>
       <c r="F19">
-        <v>59.50072348452527</v>
+        <v>41.28714348487451</v>
       </c>
       <c r="G19">
-        <v>95.68833678924064</v>
+        <v>60.94158326043432</v>
       </c>
       <c r="H19">
-        <v>23.85690693179063</v>
+        <v>20.0728813228323</v>
       </c>
       <c r="I19">
-        <v>45.85546531962365</v>
+        <v>34.70232562587087</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.199914129825273</v>
+        <v>9.611622694298317</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880252</v>
+        <v>20.73962067985785</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.328553025683296</v>
+        <v>8.504584952423636</v>
       </c>
       <c r="D20">
-        <v>6.382518660353223</v>
+        <v>6.622247411689989</v>
       </c>
       <c r="E20">
-        <v>10.34615141211889</v>
+        <v>12.26336336567635</v>
       </c>
       <c r="F20">
-        <v>60.89075596271942</v>
+        <v>41.62955971611812</v>
       </c>
       <c r="G20">
-        <v>97.92960910912294</v>
+        <v>61.59236131146599</v>
       </c>
       <c r="H20">
-        <v>24.412106330521</v>
+        <v>20.1621643439278</v>
       </c>
       <c r="I20">
-        <v>46.93143072457008</v>
+        <v>34.9226862398891</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.296495032625219</v>
+        <v>9.614284903154781</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799483449</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.451391668974263</v>
+        <v>8.492204140146491</v>
       </c>
       <c r="D21">
-        <v>6.901826745838341</v>
+        <v>6.661289021603446</v>
       </c>
       <c r="E21">
-        <v>10.90485340952412</v>
+        <v>12.30407464518058</v>
       </c>
       <c r="F21">
-        <v>65.54381334843109</v>
+        <v>42.77655565751448</v>
       </c>
       <c r="G21">
-        <v>105.434881827394</v>
+        <v>63.75487020094825</v>
       </c>
       <c r="H21">
-        <v>26.27242845907982</v>
+        <v>20.46668349264012</v>
       </c>
       <c r="I21">
-        <v>50.53320135404002</v>
+        <v>35.66670188230873</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.63210095591169</v>
+        <v>9.625719193949806</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>21.70751365554064</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.538345584206696</v>
+        <v>8.485321675577307</v>
       </c>
       <c r="D22">
-        <v>7.243947887000321</v>
+        <v>6.688325141210989</v>
       </c>
       <c r="E22">
-        <v>11.28157826503586</v>
+        <v>12.33327389423361</v>
       </c>
       <c r="F22">
-        <v>68.58975972639118</v>
+        <v>43.52225221846174</v>
       </c>
       <c r="G22">
-        <v>110.3503992433589</v>
+        <v>65.14782695422065</v>
       </c>
       <c r="H22">
-        <v>27.4916615510249</v>
+        <v>20.66880714239005</v>
       </c>
       <c r="I22">
-        <v>52.89115877822659</v>
+        <v>36.15485449008164</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.891503871626543</v>
+        <v>9.635049897478194</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.49126594715069</v>
+        <v>8.488884187410376</v>
       </c>
       <c r="D23">
-        <v>7.060913132735824</v>
+        <v>6.673757379353954</v>
       </c>
       <c r="E23">
-        <v>11.07928167905209</v>
+        <v>12.31745322297694</v>
       </c>
       <c r="F23">
-        <v>66.96231359002014</v>
+        <v>43.12470326521412</v>
       </c>
       <c r="G23">
-        <v>107.7237856255966</v>
+        <v>64.40639437311168</v>
       </c>
       <c r="H23">
-        <v>26.84008818157028</v>
+        <v>20.56066418191492</v>
       </c>
       <c r="I23">
-        <v>51.63127479425247</v>
+        <v>35.89419634587594</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.737947171346597</v>
+        <v>9.629899839867083</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110911181</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.326645914427617</v>
+        <v>8.504807687414248</v>
       </c>
       <c r="D24">
-        <v>6.374039281386292</v>
+        <v>6.621635175291531</v>
       </c>
       <c r="E24">
-        <v>10.33718197346564</v>
+        <v>12.26274185944519</v>
       </c>
       <c r="F24">
-        <v>60.81452585179553</v>
+        <v>41.61076541093709</v>
       </c>
       <c r="G24">
-        <v>97.80668721503535</v>
+        <v>61.55670744272783</v>
       </c>
       <c r="H24">
-        <v>24.38165220038568</v>
+        <v>20.15724355359084</v>
       </c>
       <c r="I24">
-        <v>46.87242448173563</v>
+        <v>34.91056931814398</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.291152846196199</v>
+        <v>9.614129348353503</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911919</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.172857927170056</v>
+        <v>8.527158575341213</v>
       </c>
       <c r="D25">
-        <v>5.692025063779271</v>
+        <v>6.572029351468887</v>
       </c>
       <c r="E25">
-        <v>9.573461008013354</v>
+        <v>12.21490947342395</v>
       </c>
       <c r="F25">
-        <v>54.09958482155529</v>
+        <v>39.96973144488514</v>
       </c>
       <c r="G25">
-        <v>86.98283455585948</v>
+        <v>58.41199414297472</v>
       </c>
       <c r="H25">
-        <v>21.70221843758034</v>
+        <v>19.73722105032877</v>
       </c>
       <c r="I25">
-        <v>41.67434728550806</v>
+        <v>33.86301646839505</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.842375541633334</v>
+        <v>9.605077071469188</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088412</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_111/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_111/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.548047572575818</v>
+        <v>5.076045754004763</v>
       </c>
       <c r="D2">
-        <v>6.54125883045493</v>
+        <v>5.303096021993496</v>
       </c>
       <c r="E2">
-        <v>12.18932593745597</v>
+        <v>9.03342742658436</v>
       </c>
       <c r="F2">
-        <v>38.76473174275738</v>
+        <v>49.00053530281161</v>
       </c>
       <c r="G2">
-        <v>56.05567591988871</v>
+        <v>78.76850699844339</v>
       </c>
       <c r="H2">
-        <v>19.44283405269406</v>
+        <v>19.672374317945</v>
       </c>
       <c r="I2">
-        <v>33.1090684750811</v>
+        <v>37.72592382390678</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.605220242882643</v>
+        <v>6.533603017618479</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883691</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.564959229818934</v>
+        <v>5.019177834668569</v>
       </c>
       <c r="D3">
-        <v>6.524013138894491</v>
+        <v>5.045743285167856</v>
       </c>
       <c r="E3">
-        <v>12.17799175561252</v>
+        <v>8.678782389446086</v>
       </c>
       <c r="F3">
-        <v>37.95564554768515</v>
+        <v>45.45258799855448</v>
       </c>
       <c r="G3">
-        <v>54.44485957427088</v>
+        <v>73.00372005701247</v>
       </c>
       <c r="H3">
-        <v>19.25349562898403</v>
+        <v>18.46998492372056</v>
       </c>
       <c r="I3">
-        <v>32.61190476574679</v>
+        <v>35.21100426327814</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.609539774742887</v>
+        <v>6.33571080587787</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502705</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.57669863710624</v>
+        <v>4.988167379577517</v>
       </c>
       <c r="D4">
-        <v>6.51520600057889</v>
+        <v>4.890355747278146</v>
       </c>
       <c r="E4">
-        <v>12.17398774936703</v>
+        <v>8.466184588917082</v>
       </c>
       <c r="F4">
-        <v>37.46450684535414</v>
+        <v>43.32196897496819</v>
       </c>
       <c r="G4">
-        <v>53.45322415713718</v>
+        <v>69.40789295563492</v>
       </c>
       <c r="H4">
-        <v>19.14253674959212</v>
+        <v>17.7264639514817</v>
       </c>
       <c r="I4">
-        <v>32.31443100047505</v>
+        <v>33.65404993802414</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.614265052071493</v>
+        <v>6.219332666468737</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896364</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.581822926415029</v>
+        <v>4.976459290678688</v>
       </c>
       <c r="D5">
-        <v>6.51206511652173</v>
+        <v>4.827660472397464</v>
       </c>
       <c r="E5">
-        <v>12.17309801068173</v>
+        <v>8.380813743122696</v>
       </c>
       <c r="F5">
-        <v>37.26607771508598</v>
+        <v>42.44051870542905</v>
       </c>
       <c r="G5">
-        <v>53.04915829273452</v>
+        <v>67.91727270504775</v>
       </c>
       <c r="H5">
-        <v>19.09869178991451</v>
+        <v>17.42134151282324</v>
       </c>
       <c r="I5">
-        <v>32.19531226839234</v>
+        <v>33.01208488578269</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.616710417996153</v>
+        <v>6.173143515020311</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188116</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.582694354639402</v>
+        <v>4.974569803851094</v>
       </c>
       <c r="D6">
-        <v>6.511570631173162</v>
+        <v>4.817287247284973</v>
       </c>
       <c r="E6">
-        <v>12.17299503610342</v>
+        <v>8.366713856925626</v>
       </c>
       <c r="F6">
-        <v>37.23324084759345</v>
+        <v>42.29335240030362</v>
       </c>
       <c r="G6">
-        <v>52.98208606689533</v>
+        <v>67.66815155843672</v>
       </c>
       <c r="H6">
-        <v>19.09149532236653</v>
+        <v>17.37054922020992</v>
       </c>
       <c r="I6">
-        <v>32.17566395987912</v>
+        <v>32.90503479478325</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.617147814398114</v>
+        <v>6.165547127661601</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566596</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.576766367500783</v>
+        <v>4.98800578612703</v>
       </c>
       <c r="D7">
-        <v>6.515161827466969</v>
+        <v>4.88950770870478</v>
       </c>
       <c r="E7">
-        <v>12.17397274793382</v>
+        <v>8.465028153130898</v>
       </c>
       <c r="F7">
-        <v>37.46182343124732</v>
+        <v>43.31013514502355</v>
       </c>
       <c r="G7">
-        <v>53.44777372132972</v>
+        <v>69.38789717351248</v>
       </c>
       <c r="H7">
-        <v>19.14193983662412</v>
+        <v>17.72235752886669</v>
       </c>
       <c r="I7">
-        <v>32.31281581399847</v>
+        <v>33.64542253234036</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.614295928700436</v>
+        <v>6.218704802046923</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304766463</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.553597072834577</v>
+        <v>5.055593024625379</v>
       </c>
       <c r="D8">
-        <v>6.53494287687809</v>
+        <v>5.213786471327526</v>
       </c>
       <c r="E8">
-        <v>12.18480398446885</v>
+        <v>8.910048305138925</v>
       </c>
       <c r="F8">
-        <v>38.48476391244221</v>
+        <v>47.77972764944099</v>
       </c>
       <c r="G8">
-        <v>55.50120440250834</v>
+        <v>76.80240224593653</v>
       </c>
       <c r="H8">
-        <v>19.37647600574521</v>
+        <v>19.25610573274506</v>
       </c>
       <c r="I8">
-        <v>32.93611938886439</v>
+        <v>36.84712649541449</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.60627849710111</v>
+        <v>6.464268936082389</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656866</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.51893989266928</v>
+        <v>5.221881214583742</v>
       </c>
       <c r="D9">
-        <v>6.587848814916436</v>
+        <v>5.882117450647783</v>
       </c>
       <c r="E9">
-        <v>12.22952545578663</v>
+        <v>9.826791985716731</v>
       </c>
       <c r="F9">
-        <v>40.52271384069176</v>
+        <v>56.38104823204075</v>
       </c>
       <c r="G9">
-        <v>59.47908260380215</v>
+        <v>90.65947176046738</v>
       </c>
       <c r="H9">
-        <v>19.87651855972801</v>
+        <v>22.61184027928919</v>
       </c>
       <c r="I9">
-        <v>34.21358298927608</v>
+        <v>43.4405631321055</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.607065939956465</v>
+        <v>6.989821754669716</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380646</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.500077603047993</v>
+        <v>5.369224213631893</v>
       </c>
       <c r="D10">
-        <v>6.635265484924069</v>
+        <v>6.560024924471618</v>
       </c>
       <c r="E10">
-        <v>12.27671356192986</v>
+        <v>10.53511247529527</v>
       </c>
       <c r="F10">
-        <v>42.02276729776702</v>
+        <v>62.48479980918993</v>
       </c>
       <c r="G10">
-        <v>62.33661497587624</v>
+        <v>100.5002773681478</v>
       </c>
       <c r="H10">
-        <v>20.26563986766339</v>
+        <v>25.04910539680028</v>
       </c>
       <c r="I10">
-        <v>35.17675798586905</v>
+        <v>48.16530686325805</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.617782190532838</v>
+        <v>7.409387508166978</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203862</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.492935977384757</v>
+        <v>5.443061882121438</v>
       </c>
       <c r="D11">
-        <v>6.658670252532967</v>
+        <v>6.868076672384412</v>
       </c>
       <c r="E11">
-        <v>12.30128531533712</v>
+        <v>10.86802865275399</v>
       </c>
       <c r="F11">
-        <v>42.70243386384655</v>
+        <v>65.24242771991753</v>
       </c>
       <c r="G11">
-        <v>63.6158804261721</v>
+        <v>104.9486195348558</v>
       </c>
       <c r="H11">
-        <v>20.44676437197159</v>
+        <v>26.15185050415706</v>
       </c>
       <c r="I11">
-        <v>35.6183635271024</v>
+        <v>50.29990151088346</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.624870026512118</v>
+        <v>7.609816994741416</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374474</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.490439001446719</v>
+        <v>5.472149904895239</v>
       </c>
       <c r="D12">
-        <v>6.667794205637503</v>
+        <v>6.985141665883756</v>
       </c>
       <c r="E12">
-        <v>12.31103500637909</v>
+        <v>10.99603222640295</v>
       </c>
       <c r="F12">
-        <v>42.95915356060193</v>
+        <v>66.28714011555802</v>
       </c>
       <c r="G12">
-        <v>64.09684983928501</v>
+        <v>106.6342652822154</v>
       </c>
       <c r="H12">
-        <v>20.51588900938445</v>
+        <v>26.56986488883895</v>
       </c>
       <c r="I12">
-        <v>35.78592729203418</v>
+        <v>51.10861148554861</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.627872742732462</v>
+        <v>7.687370115884296</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585682186</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.490967538079476</v>
+        <v>5.465832347331371</v>
       </c>
       <c r="D13">
-        <v>6.665817636079578</v>
+        <v>6.959902519763357</v>
       </c>
       <c r="E13">
-        <v>12.30891548132112</v>
+        <v>10.96837038699069</v>
       </c>
       <c r="F13">
-        <v>42.90389758222634</v>
+        <v>66.06206115222371</v>
       </c>
       <c r="G13">
-        <v>63.99342574258328</v>
+        <v>106.2710799552651</v>
       </c>
       <c r="H13">
-        <v>20.50097878508261</v>
+        <v>26.47979421643868</v>
       </c>
       <c r="I13">
-        <v>35.74982692619119</v>
+        <v>50.93437636380958</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.627211874153534</v>
+        <v>7.670588579759145</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617576</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.492726390302192</v>
+        <v>5.445431386993447</v>
       </c>
       <c r="D14">
-        <v>6.659415670601665</v>
+        <v>6.877696306694888</v>
       </c>
       <c r="E14">
-        <v>12.30207852333074</v>
+        <v>10.87851800135369</v>
       </c>
       <c r="F14">
-        <v>42.72356894458952</v>
+        <v>65.32834599898432</v>
       </c>
       <c r="G14">
-        <v>63.65552208521829</v>
+        <v>105.0872400292958</v>
       </c>
       <c r="H14">
-        <v>20.45244085516624</v>
+        <v>26.18622344168361</v>
       </c>
       <c r="I14">
-        <v>35.63214323595626</v>
+        <v>50.36640988963595</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.625110672440348</v>
+        <v>7.61616223078128</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489659</v>
+        <v>31.43851144188476</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.493830762105409</v>
+        <v>5.433087088023234</v>
       </c>
       <c r="D15">
-        <v>6.655528192578607</v>
+        <v>6.82741222282833</v>
       </c>
       <c r="E15">
-        <v>12.29794856939128</v>
+        <v>10.82374710893376</v>
       </c>
       <c r="F15">
-        <v>42.61301950385379</v>
+        <v>64.8790946250886</v>
       </c>
       <c r="G15">
-        <v>63.44808181910363</v>
+        <v>104.3624354489264</v>
       </c>
       <c r="H15">
-        <v>20.42277824019309</v>
+        <v>26.00650348186693</v>
       </c>
       <c r="I15">
-        <v>35.56009785080179</v>
+        <v>50.01865085242777</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.623865141324737</v>
+        <v>7.583049925871086</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549475</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.500573322065993</v>
+        <v>5.364547578207497</v>
       </c>
       <c r="D16">
-        <v>6.633772621830958</v>
+        <v>6.539922857929964</v>
       </c>
       <c r="E16">
-        <v>12.27517010146205</v>
+        <v>10.51360170564647</v>
       </c>
       <c r="F16">
-        <v>41.97827187745378</v>
+        <v>62.30445244828577</v>
       </c>
       <c r="G16">
-        <v>62.25255348183828</v>
+        <v>100.2094116717892</v>
       </c>
       <c r="H16">
-        <v>20.25388104402256</v>
+        <v>24.97701990040845</v>
       </c>
       <c r="I16">
-        <v>35.14795381053022</v>
+        <v>48.02570796857725</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.617363560804215</v>
+        <v>7.396503284999991</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.50507856087312</v>
+        <v>5.324338933370376</v>
       </c>
       <c r="D17">
-        <v>6.620894374435061</v>
+        <v>6.363762285986171</v>
       </c>
       <c r="E17">
-        <v>12.2619906475488</v>
+        <v>10.32631823856354</v>
       </c>
       <c r="F17">
-        <v>41.58798627937279</v>
+        <v>60.72212529123127</v>
       </c>
       <c r="G17">
-        <v>61.51348407508949</v>
+        <v>97.65769176186959</v>
       </c>
       <c r="H17">
-        <v>20.15128256180353</v>
+        <v>24.34473896626296</v>
       </c>
       <c r="I17">
-        <v>34.89588669837362</v>
+        <v>46.80090140849929</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.613942260222533</v>
+        <v>7.284684464125248</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>29.88120505119274</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.507805265770457</v>
+        <v>5.301842304943198</v>
       </c>
       <c r="D18">
-        <v>6.613660029825692</v>
+        <v>6.262374460805723</v>
       </c>
       <c r="E18">
-        <v>12.25470262740408</v>
+        <v>10.21957393124492</v>
       </c>
       <c r="F18">
-        <v>41.36326370541828</v>
+        <v>59.80998818820073</v>
       </c>
       <c r="G18">
-        <v>61.08647466578538</v>
+        <v>96.18696071723551</v>
       </c>
       <c r="H18">
-        <v>20.09266092196951</v>
+        <v>23.98040925114085</v>
       </c>
       <c r="I18">
-        <v>34.75123864885476</v>
+        <v>46.09485523450645</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.612182698080019</v>
+        <v>7.221248511622106</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568362</v>
+        <v>29.56404287680426</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.508751722894061</v>
+        <v>5.294329683413978</v>
       </c>
       <c r="D19">
-        <v>6.6112403743689</v>
+        <v>6.22802307477236</v>
       </c>
       <c r="E19">
-        <v>12.2522853008525</v>
+        <v>10.18358988247294</v>
       </c>
       <c r="F19">
-        <v>41.28714348487451</v>
+        <v>59.50072348452557</v>
       </c>
       <c r="G19">
-        <v>60.94158326043432</v>
+        <v>95.68833678924109</v>
       </c>
       <c r="H19">
-        <v>20.0728813228323</v>
+        <v>23.85690693179075</v>
       </c>
       <c r="I19">
-        <v>34.70232562587087</v>
+        <v>45.85546531962387</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.611622694298317</v>
+        <v>7.199914129825297</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985785</v>
+        <v>29.45587200880252</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.504584952423636</v>
+        <v>5.328553025683309</v>
       </c>
       <c r="D20">
-        <v>6.622247411689989</v>
+        <v>6.382518660353178</v>
       </c>
       <c r="E20">
-        <v>12.26336336567635</v>
+        <v>10.34615141211891</v>
       </c>
       <c r="F20">
-        <v>41.62955971611812</v>
+        <v>60.89075596271942</v>
       </c>
       <c r="G20">
-        <v>61.59236131146599</v>
+        <v>97.92960910912288</v>
       </c>
       <c r="H20">
-        <v>20.1621643439278</v>
+        <v>24.412106330521</v>
       </c>
       <c r="I20">
-        <v>34.9226862398891</v>
+        <v>46.93143072457005</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.614284903154781</v>
+        <v>7.296495032625214</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799483449</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.492204140146491</v>
+        <v>5.451391668974294</v>
       </c>
       <c r="D21">
-        <v>6.661289021603446</v>
+        <v>6.901826745838428</v>
       </c>
       <c r="E21">
-        <v>12.30407464518058</v>
+        <v>10.90485340952412</v>
       </c>
       <c r="F21">
-        <v>42.77655565751448</v>
+        <v>65.5438133484313</v>
       </c>
       <c r="G21">
-        <v>63.75487020094825</v>
+        <v>105.4348818273944</v>
       </c>
       <c r="H21">
-        <v>20.46668349264012</v>
+        <v>26.2724284590799</v>
       </c>
       <c r="I21">
-        <v>35.66670188230873</v>
+        <v>50.5332013540402</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.625719193949806</v>
+        <v>7.632100955911703</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554064</v>
+        <v>31.50948335633594</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.485321675577307</v>
+        <v>5.538345584206687</v>
       </c>
       <c r="D22">
-        <v>6.688325141210989</v>
+        <v>7.243947887000311</v>
       </c>
       <c r="E22">
-        <v>12.33327389423361</v>
+        <v>11.28157826503589</v>
       </c>
       <c r="F22">
-        <v>43.52225221846174</v>
+        <v>68.58975972639128</v>
       </c>
       <c r="G22">
-        <v>65.14782695422065</v>
+        <v>110.350399243359</v>
       </c>
       <c r="H22">
-        <v>20.66880714239005</v>
+        <v>27.49166155102499</v>
       </c>
       <c r="I22">
-        <v>36.15485449008164</v>
+        <v>52.89115877822665</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.635049897478194</v>
+        <v>7.891503871626572</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050592</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.488884187410376</v>
+        <v>5.491265947150717</v>
       </c>
       <c r="D23">
-        <v>6.673757379353954</v>
+        <v>7.060913132735893</v>
       </c>
       <c r="E23">
-        <v>12.31745322297694</v>
+        <v>11.07928167905212</v>
       </c>
       <c r="F23">
-        <v>43.12470326521412</v>
+        <v>66.96231359002017</v>
       </c>
       <c r="G23">
-        <v>64.40639437311168</v>
+        <v>107.7237856255968</v>
       </c>
       <c r="H23">
-        <v>20.56066418191492</v>
+        <v>26.84008818157028</v>
       </c>
       <c r="I23">
-        <v>35.89419634587594</v>
+        <v>51.63127479425249</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.629899839867083</v>
+        <v>7.737947171346618</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911181</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.504807687414248</v>
+        <v>5.326645914427603</v>
       </c>
       <c r="D24">
-        <v>6.621635175291531</v>
+        <v>6.374039281386263</v>
       </c>
       <c r="E24">
-        <v>12.26274185944519</v>
+        <v>10.33718197346562</v>
       </c>
       <c r="F24">
-        <v>41.61076541093709</v>
+        <v>60.81452585179525</v>
       </c>
       <c r="G24">
-        <v>61.55670744272783</v>
+        <v>97.80668721503496</v>
       </c>
       <c r="H24">
-        <v>20.15724355359084</v>
+        <v>24.38165220038558</v>
       </c>
       <c r="I24">
-        <v>34.91056931814398</v>
+        <v>46.87242448173541</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.614129348353503</v>
+        <v>7.291152846196199</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>29.91317649911917</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.527158575341213</v>
+        <v>5.172857927170056</v>
       </c>
       <c r="D25">
-        <v>6.572029351468887</v>
+        <v>5.692025063779297</v>
       </c>
       <c r="E25">
-        <v>12.21490947342395</v>
+        <v>9.573461008013394</v>
       </c>
       <c r="F25">
-        <v>39.96973144488514</v>
+        <v>54.09958482155562</v>
       </c>
       <c r="G25">
-        <v>58.41199414297472</v>
+        <v>86.98283455585995</v>
       </c>
       <c r="H25">
-        <v>19.73722105032877</v>
+        <v>21.70221843758048</v>
       </c>
       <c r="I25">
-        <v>33.86301646839505</v>
+        <v>41.67434728550828</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.605077071469188</v>
+        <v>6.842375541633339</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>27.51708508088411</v>
       </c>
       <c r="O25">
         <v>0</v>
